--- a/ONCHO/Breeding Site Survey/Togo/tg_oncho_bsa_2_community_questions_202108.xlsx
+++ b/ONCHO/Breeding Site Survey/Togo/tg_oncho_bsa_2_community_questions_202108.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Togo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\dsa-forms\ONCHO\Breeding Site Survey\Togo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB91FA7C-CC42-47DF-B05A-3FF8EEE74B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="116">
   <si>
     <t>form_title</t>
   </si>
@@ -197,9 +196,6 @@
     <t>Profession</t>
   </si>
   <si>
-    <t>Depuis combien d'années l'enquêté a-t-il vecu dans la région?</t>
-  </si>
-  <si>
     <t>Les piqûres des simulies sont-elles un problème dans cette communauté?</t>
   </si>
   <si>
@@ -221,9 +217,6 @@
     <t>q_Notes</t>
   </si>
   <si>
-    <t>Notes additionnelles</t>
-  </si>
-  <si>
     <t>regex(., '^[0-9]{2}$')</t>
   </si>
   <si>
@@ -236,12 +229,6 @@
     <t>q_EndSurveyNote</t>
   </si>
   <si>
-    <t>. &gt; 0 and .&lt; 121</t>
-  </si>
-  <si>
-    <t>Entrez un âge valide</t>
-  </si>
-  <si>
     <t>. &lt;= ${q_AgeYrs}</t>
   </si>
   <si>
@@ -335,12 +322,6 @@
     <t>select_multiple mois</t>
   </si>
   <si>
-    <t>tg_oncho_bsa_2_community_questions_202108</t>
-  </si>
-  <si>
-    <t>(Août 2021) 2. Enquête Entomologique d'ONCHO - Questionnaire pour la communauté</t>
-  </si>
-  <si>
     <t>Bassar</t>
   </si>
   <si>
@@ -375,12 +356,33 @@
   </si>
   <si>
     <t>district_list = ${q_DistrictID}</t>
+  </si>
+  <si>
+    <t>Informations additionnelles</t>
+  </si>
+  <si>
+    <t>Quelques (&gt;10 et &lt;=50)</t>
+  </si>
+  <si>
+    <t>Depuis combien d'années l'enquêté a-t-il vecu dans le village ?</t>
+  </si>
+  <si>
+    <t>. &gt;= 18 and .&lt;= 60</t>
+  </si>
+  <si>
+    <t>Entrez un âge valide entre 18 et 60</t>
+  </si>
+  <si>
+    <t>tg_oncho_bsa_2_community_questions_202108_v2</t>
+  </si>
+  <si>
+    <t>(Août 2021) 2. Enquête Entomologique d'ONCHO - Questionnaire pour la communauté v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -787,34 +789,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="42.609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.609375" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="20.38671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.71875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.38671875" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="36.609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -855,7 +857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -870,10 +872,10 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
@@ -883,7 +885,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -905,9 +907,9 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>35</v>
@@ -928,10 +930,10 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -948,9 +950,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>37</v>
@@ -960,13 +962,13 @@
       </c>
       <c r="D6" s="10"/>
       <c r="H6" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -978,19 +980,19 @@
       </c>
       <c r="D7" s="10"/>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1002,13 +1004,13 @@
       </c>
       <c r="D8" s="10"/>
       <c r="H8" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1016,23 +1018,23 @@
         <v>40</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="D9" s="10"/>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1040,37 +1042,37 @@
         <v>41</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>57</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1078,61 +1080,61 @@
         <v>43</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="10"/>
       <c r="H12" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="10"/>
       <c r="H13" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="10"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="D15" s="10"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -1143,7 +1145,7 @@
       <c r="D16" s="10"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -1161,22 +1163,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1191,7 +1193,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1202,7 +1204,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1213,331 +1215,331 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
         <v>78</v>
       </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
         <v>88</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
         <v>89</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C18" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" t="s">
         <v>90</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
         <v>91</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
         <v>92</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
         <v>93</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" t="s">
-        <v>109</v>
-      </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>112</v>
-      </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B27:D31">
+  <sortState ref="B27:D31">
     <sortCondition ref="B27:B31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1546,20 +1548,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.38671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1570,12 +1572,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>
